--- a/Report/Эксперимент(АвтоматическиВосстановлено).xlsx
+++ b/Report/Эксперимент(АвтоматическиВосстановлено).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\Downloads\Stab_Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6A8949-3B3B-4981-8761-D60BB797F7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF6CE4-40F4-43BF-9B99-24956CE3C018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C07B6654-8913-4DDF-B7A7-FF3E5B264ECA}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8940,11 +8939,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$166</c:f>
+              <c:f>Лист1!$E$155</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t = 15°С</c:v>
+                  <c:v>t = 40°С</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9051,11 +9050,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$155</c:f>
+              <c:f>Лист1!$E$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t = 40°С</c:v>
+                  <c:v>t = 15°С</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18888,13 +18887,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
+      <xdr:colOff>664028</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
+      <xdr:colOff>138544</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>41564</xdr:rowOff>
     </xdr:to>
@@ -18963,16 +18962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>61472</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>111034</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1237129</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>230777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>291113</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>183136</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>345541</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>128708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19075,16 +19074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>164327</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>180960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458242</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>159189</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19113,16 +19112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>707571</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1055913</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19489,8 +19488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86470A24-B746-47D1-81D7-90E1F000E738}">
   <dimension ref="A1:Q341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
